--- a/backend/test_data/test_data.xlsx
+++ b/backend/test_data/test_data.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/219f43ca87446ad7/桌面/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cherr\大學專案\MRT_FoodMap\backend\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_F25DC773A252ABDACC10485531987BA45ADE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E947812-716E-48A1-B320-EE4D076E07E8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1FC221-CB10-48E3-90BD-F77D866B28C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="person" sheetId="1" r:id="rId1"/>
     <sheet name="event" sheetId="2" r:id="rId2"/>
     <sheet name="mealpal" sheetId="3" r:id="rId3"/>
     <sheet name="chatrecord" sheetId="4" r:id="rId4"/>
+    <sheet name="store" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="96">
   <si>
     <t>Null</t>
   </si>
@@ -160,6 +161,205 @@
   </si>
   <si>
     <t>when?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoreID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Distance</t>
+  </si>
+  <si>
+    <t>StationID</t>
+  </si>
+  <si>
+    <t>麵屋武藏 本店</t>
+  </si>
+  <si>
+    <t>台北市中正區忠孝西路一段36號B1</t>
+  </si>
+  <si>
+    <t>ramen</t>
+  </si>
+  <si>
+    <t>https://reurl.cc/GAmgmd</t>
+  </si>
+  <si>
+    <t>450m</t>
+  </si>
+  <si>
+    <t>一風堂微風台北車站店</t>
+  </si>
+  <si>
+    <t>台北市中正區北平西路3號2樓</t>
+  </si>
+  <si>
+    <t>https://reurl.cc/x7GeOz</t>
+  </si>
+  <si>
+    <t>350m</t>
+  </si>
+  <si>
+    <t>屯京拉麵 台北站前店</t>
+  </si>
+  <si>
+    <t>台北市中正區忠孝西路一段38號B1</t>
+  </si>
+  <si>
+    <t>https://reurl.cc/3xayo9</t>
+  </si>
+  <si>
+    <t>400m</t>
+  </si>
+  <si>
+    <t>石研室 爆炒石頭火鍋 - 和億北車店</t>
+  </si>
+  <si>
+    <t>台北市中正區忠孝西路一段36號和億北車站B1F</t>
+  </si>
+  <si>
+    <t>hotpot</t>
+  </si>
+  <si>
+    <t>https://reurl.cc/b9XeDX</t>
+  </si>
+  <si>
+    <t>31m</t>
+  </si>
+  <si>
+    <t>八海食潮當代鍋物-北車店</t>
+  </si>
+  <si>
+    <t>https://reurl.cc/Ov0QMD</t>
+  </si>
+  <si>
+    <t>30m</t>
+  </si>
+  <si>
+    <t>瓦法奇朵（W.麻辣BAR）</t>
+  </si>
+  <si>
+    <t>台北市中正區信陽街29號</t>
+  </si>
+  <si>
+    <t>https://reurl.cc/eDEQyQ</t>
+  </si>
+  <si>
+    <t>300m</t>
+  </si>
+  <si>
+    <t>我!就厲害燒烤西門珍饌店</t>
+  </si>
+  <si>
+    <t>台北市萬華區漢中街127號5F</t>
+  </si>
+  <si>
+    <t>BBQ</t>
+  </si>
+  <si>
+    <t>https://reurl.cc/N0rOlk</t>
+  </si>
+  <si>
+    <t>200m</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>燒肉眾精緻炭火燒肉 台北西門店</t>
+  </si>
+  <si>
+    <t>台北市萬華區成都路66號2.3樓</t>
+  </si>
+  <si>
+    <t>https://reurl.cc/gDWNeN</t>
+  </si>
+  <si>
+    <t>瓦崎燒烤火鍋 西門店</t>
+  </si>
+  <si>
+    <t>台北市萬華區成都路17號2 樓</t>
+  </si>
+  <si>
+    <t>https://reurl.cc/kXZ9nL</t>
+  </si>
+  <si>
+    <t>190m</t>
+  </si>
+  <si>
+    <t>太陽蕃茄拉麵 站前本店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台北市中正區忠孝西路一段38號凱撤飯店B1F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>350m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://reurl.cc/M8AWmW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奧特拉麵Ramen Ultra 微風台北車站店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台北市中正區北平西路3號2樓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://reurl.cc/jD8VKm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>450m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藍象廷泰式火鍋 台北站前店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台北市中正區忠孝西路一段66號 b1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://reurl.cc/lDRnxQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑毛屋 微風台北車站店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://reurl.cc/qLgaQq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊一頂級燒肉-西門店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台北市萬華區西寧南路155號2樓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://reurl.cc/7krY6D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -167,7 +367,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +380,14 @@
       <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -200,10 +408,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -215,9 +424,16 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -748,7 +964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A94CB5-72C1-4714-A493-8A6044C74B29}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -813,4 +1029,377 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9284AC14-DA6F-4933-9BAC-C04A2E6E15B6}">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C17:C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="36.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.69921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E11" r:id="rId1" xr:uid="{10A104AE-51DD-4747-9AB7-014B208605A9}"/>
+    <hyperlink ref="E12" r:id="rId2" xr:uid="{C3427C64-715F-4F61-8945-64FB1BCF5DCE}"/>
+    <hyperlink ref="E13" r:id="rId3" xr:uid="{B8F3C9A9-31E8-4558-B016-56781D67344B}"/>
+    <hyperlink ref="E14" r:id="rId4" xr:uid="{D9A18BB3-0D7E-4CFC-A646-C87B7793F263}"/>
+    <hyperlink ref="E15" r:id="rId5" xr:uid="{A1ED2BC4-02BB-4A6B-9201-F0B513845388}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+</worksheet>
 </file>